--- a/src/test/java/com/DEvents/tests/jsonResults/GetParticipants.xlsx
+++ b/src/test/java/com/DEvents/tests/jsonResults/GetParticipants.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="JSON_Data" r:id="rId3" sheetId="1"/>
+    <sheet name="DB_Data" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>UserId</t>
   </si>
@@ -34,6 +35,9 @@
   <si>
     <t>pkailasam</t>
   </si>
+  <si>
+    <t>pkailasam@deloitte</t>
+  </si>
 </sst>
 </file>
 
@@ -49,12 +53,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,8 +83,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -114,11 +135,59 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="7">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/test/java/com/DEvents/tests/jsonResults/GetParticipants.xlsx
+++ b/src/test/java/com/DEvents/tests/jsonResults/GetParticipants.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>UserId</t>
   </si>
@@ -36,7 +36,7 @@
     <t>pkailasam</t>
   </si>
   <si>
-    <t>pkailasam@deloitte</t>
+    <t>APITest</t>
   </si>
 </sst>
 </file>
@@ -83,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -98,7 +99,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -135,8 +136,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="7">
+      <c r="A7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -146,7 +152,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -184,6 +190,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
